--- a/agriculture/new_crofting.xlsx
+++ b/agriculture/new_crofting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scotsconnect-my.sharepoint.com/personal/dominik_szczepaniak_gov_scot/Documents/rural_dashboard/agriculture/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scotsconnect-my.sharepoint.com/personal/jacqueline_massaya_gov_scot/Documents/R/rural_dashboard/agriculture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC104884419953BC5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9822062F-56BE-4FB2-9D3F-D4643B90D03C}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_F25DC773A252ABDACC104884419953BC5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45F9FD54-D32D-4043-8D67-CB9974F37690}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>1.10 Number of new entrants into crofting</t>
   </si>
@@ -39,10 +39,16 @@
     <t>Oct 2022- Sep 2023</t>
   </si>
   <si>
-    <t>Apr 2023- Mar 2024*</t>
-  </si>
-  <si>
     <t>Number of new entrants</t>
+  </si>
+  <si>
+    <t>Apr 2023- Mar 2024</t>
+  </si>
+  <si>
+    <t>Oct 2023- Sep 2024</t>
+  </si>
+  <si>
+    <t>Apr 2024- Mar 2025*</t>
   </si>
 </sst>
 </file>
@@ -421,15 +427,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +444,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="39" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -450,12 +456,18 @@
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="B3" s="6">
         <v>538</v>
@@ -467,7 +479,13 @@
         <v>537</v>
       </c>
       <c r="E3" s="7">
-        <v>537</v>
+        <v>560</v>
+      </c>
+      <c r="F3" s="7">
+        <v>560</v>
+      </c>
+      <c r="G3" s="7">
+        <v>539</v>
       </c>
     </row>
   </sheetData>
